--- a/Model Predictions.xlsx
+++ b/Model Predictions.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juz19\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD55EC-7701-4FF5-8DB8-2A255008C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Team 1</t>
   </si>
@@ -134,28 +143,40 @@
   </si>
   <si>
     <t>TAM</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +184,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,35 +194,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -391,20 +421,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -435,16 +470,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>21.835377</v>
+        <v>21.835377000000001</v>
       </c>
       <c r="D2" s="2">
-        <v>16.41643</v>
+        <v>16.416429999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -452,8 +487,11 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -461,19 +499,28 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>16.41643</v>
+        <v>16.416429999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>21.692429</v>
+        <v>21.692429000000001</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -481,16 +528,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>21.692429</v>
+        <v>21.692429000000001</v>
       </c>
       <c r="D4" s="2">
         <v>18.252108</v>
       </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="4">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -501,10 +560,19 @@
         <v>18.252108</v>
       </c>
       <c r="D5" s="2">
-        <v>13.686478</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>13.686477999999999</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -512,13 +580,22 @@
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>13.686478</v>
+        <v>13.686477999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>21.027239</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>21.027239000000002</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -526,13 +603,22 @@
         <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>21.027239</v>
+        <v>21.027239000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>23.560448</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>23.560448000000001</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -540,13 +626,22 @@
         <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>23.560448</v>
+        <v>23.560448000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>26.37924</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>26.379239999999999</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -554,13 +649,22 @@
         <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>26.37924</v>
+        <v>26.379239999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>23.376572</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>23.376571999999999</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -568,13 +672,22 @@
         <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>23.376572</v>
+        <v>23.376571999999999</v>
       </c>
       <c r="D10" s="2">
         <v>25.081474</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -587,8 +700,17 @@
       <c r="D11" s="2">
         <v>24.117165</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -599,10 +721,19 @@
         <v>24.117165</v>
       </c>
       <c r="D12" s="2">
-        <v>14.59228</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>14.592280000000001</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -610,13 +741,22 @@
         <v>34</v>
       </c>
       <c r="C13" s="2">
-        <v>14.59228</v>
+        <v>14.592280000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>21.011639</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>21.011638999999999</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -624,13 +764,22 @@
         <v>36</v>
       </c>
       <c r="C14" s="2">
-        <v>21.011639</v>
+        <v>21.011638999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>17.079966</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>17.079965999999999</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -638,13 +787,22 @@
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>17.079966</v>
+        <v>17.079965999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>18.843285</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>18.843285000000002</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -652,13 +810,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>18.843285</v>
+        <v>18.843285000000002</v>
       </c>
       <c r="D16" s="2">
         <v>24.085943</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model Predictions.xlsx
+++ b/Model Predictions.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juz19\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Desktop/Occupation Set 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD55EC-7701-4FF5-8DB8-2A255008C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FD189-E4E0-0C4D-9901-6A906B455CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Team 1</t>
   </si>
@@ -70,9 +83,6 @@
     <t>BAL</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>GNB</t>
   </si>
   <si>
@@ -146,13 +156,85 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Acc = 0.733</t>
+  </si>
+  <si>
+    <t>Proj Spread</t>
+  </si>
+  <si>
+    <t>TAM -3.5</t>
+  </si>
+  <si>
+    <t>DAL -11</t>
+  </si>
+  <si>
+    <t>LVR -2.5</t>
+  </si>
+  <si>
+    <t>CIN +2.5</t>
+  </si>
+  <si>
+    <t>MIA +5</t>
+  </si>
+  <si>
+    <t>Hit?</t>
+  </si>
+  <si>
+    <t>SEA -7</t>
+  </si>
+  <si>
+    <t>PHI -4.5</t>
+  </si>
+  <si>
+    <t>NYG +2</t>
+  </si>
+  <si>
+    <t>NYJ +3</t>
+  </si>
+  <si>
+    <t>CLE -7</t>
+  </si>
+  <si>
+    <t>DET -1.5</t>
+  </si>
+  <si>
+    <t>CHI +4</t>
+  </si>
+  <si>
+    <t>DEN +9</t>
+  </si>
+  <si>
+    <t>PIT -1</t>
+  </si>
+  <si>
+    <t>BUF -3.5</t>
+  </si>
+  <si>
+    <t>Money In</t>
+  </si>
+  <si>
+    <t>Money Back</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Assuming you bet 110 on each game, you spend 1650</t>
+  </si>
+  <si>
+    <t>Choosing the correct spread nets 210, 110 you put in and 100 in winnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROI </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,30 +249,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,14 +298,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,15 +525,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,19 +555,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>21.835377000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>16.416429999999998</v>
+      <c r="C2" s="3">
+        <v>22.117436999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16.98433</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -488,21 +588,42 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2">
+        <v>1650</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>16.416429999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>21.692429000000001</v>
+      <c r="C3" s="3">
+        <v>22.326149000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>18.586919999999999</v>
       </c>
       <c r="E3">
         <v>19</v>
@@ -510,28 +631,49 @@
       <c r="F3">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>2310</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>21.692429000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18.252108</v>
+      <c r="C4" s="3">
+        <v>13.815851</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21.288741999999999</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -539,28 +681,38 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="4"/>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.57140000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>18.252108</v>
-      </c>
-      <c r="D5" s="2">
-        <v>13.686477999999999</v>
+      <c r="C5" s="3">
+        <v>23.713557999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26.488952999999999</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -568,22 +720,35 @@
       <c r="F5">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="P5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13.686477999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21.027239000000002</v>
+      <c r="C6" s="3">
+        <v>23.526942999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25.048877999999998</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -591,22 +756,28 @@
       <c r="F6">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21.027239000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.560448000000001</v>
+      <c r="C7" s="3">
+        <v>24.365718999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14.2601595</v>
       </c>
       <c r="E7">
         <v>27</v>
@@ -614,22 +785,28 @@
       <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>23.560448000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26.379239999999999</v>
+      <c r="C8" s="3">
+        <v>21.352913000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17.038803000000001</v>
       </c>
       <c r="E8">
         <v>22</v>
@@ -637,22 +814,28 @@
       <c r="F8">
         <v>27</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>26.379239999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>23.376571999999999</v>
+      <c r="C9" s="3">
+        <v>18.798656000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24.704602999999999</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -660,22 +843,28 @@
       <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2">
-        <v>23.376571999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25.081474</v>
+      <c r="C10" s="3">
+        <v>20.393543000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>26.739414</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -683,22 +872,28 @@
       <c r="F10">
         <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2">
-        <v>25.081474</v>
-      </c>
-      <c r="D11" s="2">
-        <v>24.117165</v>
+      <c r="C11" s="3">
+        <v>27.148765999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16.677668000000001</v>
       </c>
       <c r="E11">
         <v>27</v>
@@ -706,22 +901,28 @@
       <c r="F11">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2">
-        <v>24.117165</v>
-      </c>
-      <c r="D12" s="2">
-        <v>14.592280000000001</v>
+      <c r="C12" s="3">
+        <v>28.469871999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25.417909999999999</v>
       </c>
       <c r="E12">
         <v>17</v>
@@ -729,22 +930,28 @@
       <c r="F12">
         <v>33</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14.592280000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>21.011638999999999</v>
+      <c r="C13" s="3">
+        <v>27.381499999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>32.352424999999997</v>
       </c>
       <c r="E13">
         <v>24</v>
@@ -752,22 +959,28 @@
       <c r="F13">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21.011638999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>17.079965999999999</v>
+      <c r="C14" s="3">
+        <v>20.496307000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27.563728000000001</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -775,22 +988,28 @@
       <c r="F14">
         <v>27</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17.079965999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>18.843285000000002</v>
+      <c r="C15" s="3">
+        <v>16.830862</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31.574932</v>
       </c>
       <c r="E15">
         <v>19</v>
@@ -798,22 +1017,43 @@
       <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="3">
+        <v>14.526918</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20.720866999999998</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18.843285000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <v>24.085943</v>
       </c>
     </row>
   </sheetData>

--- a/Model Predictions.xlsx
+++ b/Model Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Desktop/Occupation Set 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FD189-E4E0-0C4D-9901-6A906B455CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0EF3C-4D2F-6649-96F3-5ED5C07A181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>Team 1</t>
   </si>
@@ -228,6 +228,90 @@
   </si>
   <si>
     <t xml:space="preserve">ROI </t>
+  </si>
+  <si>
+    <t>NWE</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Correct </t>
+  </si>
+  <si>
+    <t>PIT +2.5</t>
+  </si>
+  <si>
+    <t>GNB + 6.5</t>
+  </si>
+  <si>
+    <t>oof</t>
+  </si>
+  <si>
+    <t>LVR +4</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>LAR +16</t>
+  </si>
+  <si>
+    <t>SFO -8.5</t>
+  </si>
+  <si>
+    <t>ARI +2.5</t>
+  </si>
+  <si>
+    <t>CLE +3.5</t>
+  </si>
+  <si>
+    <t>ATL +3.5</t>
+  </si>
+  <si>
+    <t>JAX +3.5</t>
+  </si>
+  <si>
+    <t>CHI +7</t>
+  </si>
+  <si>
+    <t>CAR +1.5</t>
+  </si>
+  <si>
+    <t>CIN +0.5</t>
+  </si>
+  <si>
+    <t>MIA -14</t>
+  </si>
+  <si>
+    <t>NWE +2.5</t>
+  </si>
+  <si>
+    <t>NYG +10</t>
+  </si>
+  <si>
+    <t>DET +9.5</t>
+  </si>
+  <si>
+    <t>Notes on spread</t>
+  </si>
+  <si>
+    <t>Pushed</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Money in</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Acc = 0.8125</t>
   </si>
 </sst>
 </file>
@@ -298,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,6 +391,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,13 +610,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A35" sqref="A35:Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -555,6 +643,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1055,6 +1146,672 @@
       <c r="L16" s="2" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>22.477063999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>26.590454000000001</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>25.178267999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>31.196508000000001</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16.836874000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>17.238588</v>
+      </c>
+      <c r="E20">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
+        <v>13.7084875</v>
+      </c>
+      <c r="D21" s="3">
+        <v>32.227474000000001</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="8"/>
+      <c r="P21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31.199134999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21.121141000000001</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3">
+        <v>13.721652000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18.518764000000001</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>24.857983000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19.812470000000001</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18.67839</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17.916537999999999</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>21.609476000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>21.918731999999999</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.846672000000002</v>
+      </c>
+      <c r="D27" s="3">
+        <v>23.699310000000001</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>28.052451999999999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>26.349329999999998</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>21.518383</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21.239635</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13.2163</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25.080970000000001</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15.784568999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>27.574352000000001</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3">
+        <v>23.685054999999998</v>
+      </c>
+      <c r="D32" s="3">
+        <v>28.148516000000001</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <v>23.586684999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16.265723999999999</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="5"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
